--- a/RPADev-S04P03-CalculatingPercentagesOfExpenses-CashPayments.xlsx
+++ b/RPADev-S04P03-CalculatingPercentagesOfExpenses-CashPayments.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A4FB35-1887-42EE-86FF-2E38AB5968C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="12990"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -369,20 +368,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,7 +390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -404,7 +401,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -415,7 +412,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -426,7 +423,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
